--- a/Odyss.AI.Backend.LLM/output.xlsx
+++ b/Odyss.AI.Backend.LLM/output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Oppel\Odyss.AI\Odyss.AI.Backend.LLM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Odyss.AI\Odyss.AI.Backend.LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F30635-6117-4495-AF4F-715000788B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C88D81-23AF-4ED3-B513-EFF830011845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="535">
   <si>
     <t>image</t>
   </si>
@@ -1783,9 +1783,6 @@
     <t>$$Loss=\frac{1}{N}\sum_{i=1}^{N}\left({\theta_{i}}-\hat{{\theta_{i}}}\right)^{2}$$</t>
   </si>
   <si>
-    <t>Vergleich</t>
-  </si>
-  <si>
     <t>T'' \right)\left( T''\in PT \right)\left( T''\neq T' \right)\left[ f(T') \geq f(T'') \right]</t>
   </si>
   <si>
@@ -1945,6 +1942,18 @@
   </si>
   <si>
     <t>FALSCH</t>
+  </si>
+  <si>
+    <t>Vergleich Pixtral</t>
+  </si>
+  <si>
+    <t>Vergleich Nougat</t>
+  </si>
+  <si>
+    <t>richtig, FALSCH, FALSCH, FALSCH</t>
+  </si>
+  <si>
+    <t>richtig, richtig, richtig, richtig, richtig</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2034,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2325,21 +2334,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A356" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
     <col min="2" max="2" width="74" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.53125" customWidth="1"/>
+    <col min="4" max="4" width="32.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2347,13 +2357,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2364,10 +2377,13 @@
         <v>482</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2378,10 +2394,13 @@
         <v>482</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2392,10 +2411,13 @@
         <v>482</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2406,10 +2428,13 @@
         <v>483</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2420,10 +2445,13 @@
         <v>482</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2434,10 +2462,13 @@
         <v>482</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2448,10 +2479,13 @@
         <v>482</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2462,10 +2496,13 @@
         <v>482</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2476,10 +2513,13 @@
         <v>482</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2490,10 +2530,13 @@
         <v>482</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2504,10 +2547,13 @@
         <v>482</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2518,10 +2564,13 @@
         <v>482</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2529,13 +2578,16 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2546,10 +2598,13 @@
         <v>482</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2560,10 +2615,13 @@
         <v>482</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2574,10 +2632,13 @@
         <v>482</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2585,13 +2646,16 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2602,10 +2666,13 @@
         <v>482</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2616,10 +2683,13 @@
         <v>482</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2630,10 +2700,13 @@
         <v>482</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2644,10 +2717,13 @@
         <v>482</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2658,10 +2734,13 @@
         <v>482</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2672,10 +2751,13 @@
         <v>482</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2686,10 +2768,13 @@
         <v>482</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2697,13 +2782,16 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2711,13 +2799,16 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2725,13 +2816,16 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2739,13 +2833,16 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2753,13 +2850,16 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2767,13 +2867,16 @@
         <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2784,10 +2887,13 @@
         <v>482</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2795,13 +2901,16 @@
         <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -2812,10 +2921,13 @@
         <v>482</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -2826,10 +2938,13 @@
         <v>482</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -2840,10 +2955,13 @@
         <v>482</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2854,10 +2972,13 @@
         <v>482</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -2868,10 +2989,13 @@
         <v>482</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -2882,10 +3006,13 @@
         <v>482</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2896,10 +3023,13 @@
         <v>482</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -2910,10 +3040,13 @@
         <v>482</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2924,10 +3057,13 @@
         <v>482</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -2938,10 +3074,13 @@
         <v>482</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -2952,10 +3091,13 @@
         <v>482</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2966,10 +3108,13 @@
         <v>482</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -2980,10 +3125,13 @@
         <v>482</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -2994,10 +3142,13 @@
         <v>482</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -3005,13 +3156,16 @@
         <v>75</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -3019,13 +3173,16 @@
         <v>77</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -3033,13 +3190,16 @@
         <v>79</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -3050,10 +3210,13 @@
         <v>482</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3064,10 +3227,13 @@
         <v>482</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3078,10 +3244,13 @@
         <v>482</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -3092,10 +3261,13 @@
         <v>482</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -3106,10 +3278,13 @@
         <v>482</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -3120,10 +3295,13 @@
         <v>482</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -3134,10 +3312,13 @@
         <v>482</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -3148,10 +3329,13 @@
         <v>482</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -3162,10 +3346,13 @@
         <v>482</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -3176,10 +3363,13 @@
         <v>482</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -3190,10 +3380,13 @@
         <v>482</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -3204,10 +3397,13 @@
         <v>482</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -3218,10 +3414,13 @@
         <v>482</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -3232,10 +3431,13 @@
         <v>482</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -3246,10 +3448,13 @@
         <v>482</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -3260,10 +3465,13 @@
         <v>482</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -3274,10 +3482,13 @@
         <v>482</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>104</v>
       </c>
@@ -3288,10 +3499,13 @@
         <v>482</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -3302,10 +3516,13 @@
         <v>482</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3316,10 +3533,13 @@
         <v>482</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -3327,13 +3547,16 @@
         <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -3344,10 +3567,13 @@
         <v>482</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -3358,10 +3584,13 @@
         <v>482</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -3372,10 +3601,13 @@
         <v>482</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -3386,10 +3618,13 @@
         <v>482</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -3400,10 +3635,13 @@
         <v>482</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -3414,10 +3652,13 @@
         <v>482</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -3428,10 +3669,13 @@
         <v>482</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -3442,10 +3686,13 @@
         <v>482</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -3456,10 +3703,13 @@
         <v>482</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -3470,10 +3720,13 @@
         <v>482</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -3484,10 +3737,13 @@
         <v>482</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>123</v>
       </c>
@@ -3498,10 +3754,13 @@
         <v>482</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -3512,10 +3771,13 @@
         <v>482</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -3526,10 +3788,13 @@
         <v>482</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>126</v>
       </c>
@@ -3540,10 +3805,13 @@
         <v>482</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>128</v>
       </c>
@@ -3554,10 +3822,13 @@
         <v>482</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -3568,10 +3839,13 @@
         <v>482</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -3582,10 +3856,13 @@
         <v>482</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -3596,10 +3873,13 @@
         <v>482</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -3610,10 +3890,13 @@
         <v>482</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -3624,10 +3907,13 @@
         <v>482</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>137</v>
       </c>
@@ -3638,10 +3924,13 @@
         <v>482</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -3652,10 +3941,13 @@
         <v>482</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -3666,10 +3958,13 @@
         <v>482</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -3680,10 +3975,13 @@
         <v>482</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>143</v>
       </c>
@@ -3694,10 +3992,13 @@
         <v>482</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -3708,10 +4009,13 @@
         <v>482</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -3722,10 +4026,13 @@
         <v>482</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -3736,10 +4043,13 @@
         <v>482</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -3750,10 +4060,13 @@
         <v>482</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>150</v>
       </c>
@@ -3764,10 +4077,13 @@
         <v>482</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -3778,10 +4094,13 @@
         <v>482</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -3792,10 +4111,13 @@
         <v>482</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>153</v>
       </c>
@@ -3806,10 +4128,13 @@
         <v>482</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>154</v>
       </c>
@@ -3820,10 +4145,13 @@
         <v>482</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -3834,10 +4162,13 @@
         <v>482</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -3848,10 +4179,13 @@
         <v>482</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>158</v>
       </c>
@@ -3862,10 +4196,13 @@
         <v>482</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>159</v>
       </c>
@@ -3876,10 +4213,13 @@
         <v>482</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>160</v>
       </c>
@@ -3890,10 +4230,13 @@
         <v>482</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -3904,10 +4247,13 @@
         <v>482</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>162</v>
       </c>
@@ -3918,10 +4264,13 @@
         <v>482</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>163</v>
       </c>
@@ -3932,10 +4281,13 @@
         <v>482</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>164</v>
       </c>
@@ -3946,10 +4298,13 @@
         <v>482</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -3960,10 +4315,13 @@
         <v>482</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>166</v>
       </c>
@@ -3974,10 +4332,13 @@
         <v>482</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>167</v>
       </c>
@@ -3988,10 +4349,13 @@
         <v>482</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -4002,10 +4366,13 @@
         <v>482</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>169</v>
       </c>
@@ -4016,10 +4383,13 @@
         <v>482</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>170</v>
       </c>
@@ -4030,10 +4400,13 @@
         <v>482</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>172</v>
       </c>
@@ -4044,10 +4417,13 @@
         <v>482</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>173</v>
       </c>
@@ -4058,10 +4434,13 @@
         <v>482</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>174</v>
       </c>
@@ -4072,10 +4451,13 @@
         <v>482</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>175</v>
       </c>
@@ -4086,10 +4468,13 @@
         <v>482</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>176</v>
       </c>
@@ -4100,10 +4485,13 @@
         <v>482</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>177</v>
       </c>
@@ -4114,10 +4502,13 @@
         <v>482</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>179</v>
       </c>
@@ -4128,10 +4519,13 @@
         <v>482</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>180</v>
       </c>
@@ -4142,10 +4536,13 @@
         <v>482</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>182</v>
       </c>
@@ -4156,10 +4553,13 @@
         <v>482</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>183</v>
       </c>
@@ -4170,10 +4570,13 @@
         <v>482</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -4184,10 +4587,13 @@
         <v>482</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>185</v>
       </c>
@@ -4198,10 +4604,13 @@
         <v>482</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>186</v>
       </c>
@@ -4212,10 +4621,13 @@
         <v>482</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>187</v>
       </c>
@@ -4226,10 +4638,13 @@
         <v>482</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -4240,10 +4655,13 @@
         <v>482</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>189</v>
       </c>
@@ -4254,10 +4672,13 @@
         <v>482</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>190</v>
       </c>
@@ -4268,10 +4689,13 @@
         <v>482</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>191</v>
       </c>
@@ -4282,10 +4706,13 @@
         <v>482</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>192</v>
       </c>
@@ -4296,10 +4723,13 @@
         <v>482</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>194</v>
       </c>
@@ -4310,10 +4740,13 @@
         <v>482</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>196</v>
       </c>
@@ -4324,10 +4757,13 @@
         <v>482</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>197</v>
       </c>
@@ -4338,10 +4774,13 @@
         <v>482</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>198</v>
       </c>
@@ -4352,10 +4791,13 @@
         <v>482</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>199</v>
       </c>
@@ -4366,10 +4808,13 @@
         <v>482</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>200</v>
       </c>
@@ -4380,10 +4825,13 @@
         <v>482</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -4394,10 +4842,13 @@
         <v>482</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>204</v>
       </c>
@@ -4408,10 +4859,13 @@
         <v>482</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>205</v>
       </c>
@@ -4422,10 +4876,13 @@
         <v>482</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>206</v>
       </c>
@@ -4436,10 +4893,13 @@
         <v>482</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>207</v>
       </c>
@@ -4450,10 +4910,13 @@
         <v>482</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>208</v>
       </c>
@@ -4464,10 +4927,13 @@
         <v>482</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>209</v>
       </c>
@@ -4478,10 +4944,13 @@
         <v>482</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>210</v>
       </c>
@@ -4492,10 +4961,13 @@
         <v>482</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>211</v>
       </c>
@@ -4506,10 +4978,13 @@
         <v>482</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>212</v>
       </c>
@@ -4520,10 +4995,13 @@
         <v>482</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>214</v>
       </c>
@@ -4534,10 +5012,13 @@
         <v>482</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>215</v>
       </c>
@@ -4548,10 +5029,13 @@
         <v>482</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>217</v>
       </c>
@@ -4562,10 +5046,13 @@
         <v>482</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>219</v>
       </c>
@@ -4576,10 +5063,13 @@
         <v>482</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>220</v>
       </c>
@@ -4590,10 +5080,13 @@
         <v>482</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -4604,10 +5097,13 @@
         <v>482</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>223</v>
       </c>
@@ -4618,10 +5114,13 @@
         <v>482</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -4632,10 +5131,13 @@
         <v>482</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>225</v>
       </c>
@@ -4646,10 +5148,13 @@
         <v>482</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>227</v>
       </c>
@@ -4660,10 +5165,13 @@
         <v>482</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>228</v>
       </c>
@@ -4674,10 +5182,13 @@
         <v>482</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>229</v>
       </c>
@@ -4688,10 +5199,13 @@
         <v>482</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>230</v>
       </c>
@@ -4702,10 +5216,13 @@
         <v>482</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>231</v>
       </c>
@@ -4716,10 +5233,13 @@
         <v>482</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>232</v>
       </c>
@@ -4730,10 +5250,13 @@
         <v>482</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>233</v>
       </c>
@@ -4744,10 +5267,13 @@
         <v>482</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>234</v>
       </c>
@@ -4758,10 +5284,13 @@
         <v>482</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>236</v>
       </c>
@@ -4772,10 +5301,13 @@
         <v>482</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>237</v>
       </c>
@@ -4786,10 +5318,13 @@
         <v>482</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>238</v>
       </c>
@@ -4800,10 +5335,13 @@
         <v>482</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>239</v>
       </c>
@@ -4814,10 +5352,13 @@
         <v>482</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>240</v>
       </c>
@@ -4825,13 +5366,16 @@
         <v>241</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E178" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>242</v>
       </c>
@@ -4842,10 +5386,13 @@
         <v>482</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>244</v>
       </c>
@@ -4856,10 +5403,13 @@
         <v>482</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>245</v>
       </c>
@@ -4870,10 +5420,13 @@
         <v>482</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>246</v>
       </c>
@@ -4884,10 +5437,13 @@
         <v>482</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>247</v>
       </c>
@@ -4898,10 +5454,13 @@
         <v>482</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>249</v>
       </c>
@@ -4912,10 +5471,13 @@
         <v>482</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>251</v>
       </c>
@@ -4926,10 +5488,13 @@
         <v>482</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -4940,10 +5505,13 @@
         <v>482</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>253</v>
       </c>
@@ -4951,13 +5519,16 @@
         <v>254</v>
       </c>
       <c r="C187" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>255</v>
       </c>
@@ -4968,10 +5539,13 @@
         <v>482</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>256</v>
       </c>
@@ -4982,10 +5556,13 @@
         <v>482</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>258</v>
       </c>
@@ -4996,10 +5573,13 @@
         <v>482</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>259</v>
       </c>
@@ -5010,10 +5590,13 @@
         <v>482</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>260</v>
       </c>
@@ -5024,10 +5607,13 @@
         <v>482</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>261</v>
       </c>
@@ -5038,10 +5624,13 @@
         <v>482</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>262</v>
       </c>
@@ -5052,10 +5641,13 @@
         <v>482</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>263</v>
       </c>
@@ -5066,10 +5658,13 @@
         <v>482</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>264</v>
       </c>
@@ -5080,10 +5675,13 @@
         <v>482</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>265</v>
       </c>
@@ -5094,10 +5692,13 @@
         <v>482</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>266</v>
       </c>
@@ -5108,10 +5709,13 @@
         <v>482</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>267</v>
       </c>
@@ -5122,10 +5726,13 @@
         <v>482</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>269</v>
       </c>
@@ -5136,10 +5743,13 @@
         <v>482</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>271</v>
       </c>
@@ -5150,10 +5760,13 @@
         <v>482</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>272</v>
       </c>
@@ -5164,10 +5777,13 @@
         <v>482</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>273</v>
       </c>
@@ -5178,10 +5794,13 @@
         <v>482</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>274</v>
       </c>
@@ -5192,10 +5811,13 @@
         <v>482</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>275</v>
       </c>
@@ -5206,10 +5828,13 @@
         <v>482</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>277</v>
       </c>
@@ -5217,13 +5842,16 @@
         <v>278</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>279</v>
       </c>
@@ -5231,13 +5859,16 @@
         <v>280</v>
       </c>
       <c r="C207" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>281</v>
       </c>
@@ -5248,10 +5879,13 @@
         <v>482</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>282</v>
       </c>
@@ -5262,10 +5896,13 @@
         <v>482</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>283</v>
       </c>
@@ -5276,10 +5913,13 @@
         <v>482</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>284</v>
       </c>
@@ -5290,10 +5930,13 @@
         <v>482</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>285</v>
       </c>
@@ -5304,10 +5947,13 @@
         <v>482</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>286</v>
       </c>
@@ -5318,10 +5964,13 @@
         <v>482</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>288</v>
       </c>
@@ -5332,10 +5981,13 @@
         <v>482</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>289</v>
       </c>
@@ -5346,10 +5998,13 @@
         <v>482</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>290</v>
       </c>
@@ -5360,10 +6015,13 @@
         <v>482</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>291</v>
       </c>
@@ -5374,10 +6032,13 @@
         <v>482</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>292</v>
       </c>
@@ -5388,10 +6049,13 @@
         <v>482</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>293</v>
       </c>
@@ -5402,10 +6066,13 @@
         <v>482</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>294</v>
       </c>
@@ -5416,10 +6083,13 @@
         <v>482</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>296</v>
       </c>
@@ -5430,10 +6100,13 @@
         <v>482</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>297</v>
       </c>
@@ -5444,10 +6117,13 @@
         <v>482</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>298</v>
       </c>
@@ -5458,10 +6134,13 @@
         <v>482</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>299</v>
       </c>
@@ -5472,10 +6151,13 @@
         <v>482</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>300</v>
       </c>
@@ -5486,10 +6168,13 @@
         <v>482</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>301</v>
       </c>
@@ -5500,10 +6185,13 @@
         <v>482</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>302</v>
       </c>
@@ -5514,10 +6202,13 @@
         <v>482</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>303</v>
       </c>
@@ -5528,10 +6219,13 @@
         <v>482</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>304</v>
       </c>
@@ -5542,10 +6236,13 @@
         <v>482</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>305</v>
       </c>
@@ -5556,10 +6253,13 @@
         <v>482</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>306</v>
       </c>
@@ -5570,10 +6270,13 @@
         <v>482</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>307</v>
       </c>
@@ -5584,24 +6287,30 @@
         <v>482</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>309</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="D233" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>310</v>
       </c>
@@ -5612,10 +6321,13 @@
         <v>482</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>311</v>
       </c>
@@ -5626,10 +6338,13 @@
         <v>482</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>313</v>
       </c>
@@ -5640,10 +6355,13 @@
         <v>482</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>315</v>
       </c>
@@ -5654,10 +6372,13 @@
         <v>482</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>316</v>
       </c>
@@ -5668,10 +6389,13 @@
         <v>482</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>317</v>
       </c>
@@ -5682,10 +6406,13 @@
         <v>482</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>318</v>
       </c>
@@ -5696,10 +6423,13 @@
         <v>482</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>319</v>
       </c>
@@ -5710,10 +6440,13 @@
         <v>482</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>321</v>
       </c>
@@ -5724,10 +6457,13 @@
         <v>482</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>322</v>
       </c>
@@ -5738,10 +6474,13 @@
         <v>482</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>323</v>
       </c>
@@ -5752,10 +6491,13 @@
         <v>482</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>325</v>
       </c>
@@ -5766,10 +6508,13 @@
         <v>482</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>326</v>
       </c>
@@ -5780,10 +6525,13 @@
         <v>482</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>327</v>
       </c>
@@ -5794,10 +6542,13 @@
         <v>482</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>328</v>
       </c>
@@ -5808,10 +6559,13 @@
         <v>482</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>329</v>
       </c>
@@ -5822,10 +6576,13 @@
         <v>482</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>330</v>
       </c>
@@ -5836,10 +6593,13 @@
         <v>482</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>331</v>
       </c>
@@ -5850,10 +6610,13 @@
         <v>482</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>333</v>
       </c>
@@ -5864,10 +6627,13 @@
         <v>482</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>335</v>
       </c>
@@ -5878,10 +6644,13 @@
         <v>482</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>336</v>
       </c>
@@ -5892,10 +6661,13 @@
         <v>482</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>337</v>
       </c>
@@ -5906,10 +6678,13 @@
         <v>482</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>339</v>
       </c>
@@ -5920,10 +6695,13 @@
         <v>482</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>341</v>
       </c>
@@ -5934,10 +6712,13 @@
         <v>482</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>343</v>
       </c>
@@ -5948,10 +6729,13 @@
         <v>482</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>344</v>
       </c>
@@ -5962,10 +6746,13 @@
         <v>482</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>345</v>
       </c>
@@ -5976,10 +6763,13 @@
         <v>482</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>347</v>
       </c>
@@ -5990,10 +6780,13 @@
         <v>482</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>349</v>
       </c>
@@ -6004,10 +6797,13 @@
         <v>482</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>350</v>
       </c>
@@ -6018,10 +6814,13 @@
         <v>482</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>351</v>
       </c>
@@ -6032,10 +6831,13 @@
         <v>482</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>353</v>
       </c>
@@ -6046,10 +6848,13 @@
         <v>482</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>355</v>
       </c>
@@ -6060,10 +6865,13 @@
         <v>482</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>356</v>
       </c>
@@ -6074,10 +6882,13 @@
         <v>482</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>357</v>
       </c>
@@ -6088,10 +6899,13 @@
         <v>482</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>358</v>
       </c>
@@ -6102,10 +6916,13 @@
         <v>482</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>360</v>
       </c>
@@ -6116,10 +6933,13 @@
         <v>482</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>361</v>
       </c>
@@ -6130,10 +6950,13 @@
         <v>482</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>362</v>
       </c>
@@ -6144,10 +6967,13 @@
         <v>482</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>364</v>
       </c>
@@ -6158,10 +6984,13 @@
         <v>482</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>365</v>
       </c>
@@ -6172,10 +7001,13 @@
         <v>482</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>366</v>
       </c>
@@ -6186,10 +7018,13 @@
         <v>482</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>368</v>
       </c>
@@ -6200,10 +7035,13 @@
         <v>482</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>369</v>
       </c>
@@ -6214,10 +7052,13 @@
         <v>482</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>370</v>
       </c>
@@ -6228,10 +7069,13 @@
         <v>482</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>371</v>
       </c>
@@ -6242,10 +7086,13 @@
         <v>482</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>372</v>
       </c>
@@ -6256,10 +7103,13 @@
         <v>482</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>373</v>
       </c>
@@ -6270,10 +7120,13 @@
         <v>482</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>374</v>
       </c>
@@ -6284,10 +7137,13 @@
         <v>482</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="319" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>375</v>
       </c>
@@ -6298,10 +7154,13 @@
         <v>482</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>377</v>
       </c>
@@ -6312,10 +7171,13 @@
         <v>482</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>378</v>
       </c>
@@ -6326,10 +7188,13 @@
         <v>482</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>379</v>
       </c>
@@ -6337,13 +7202,16 @@
         <v>380</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>381</v>
       </c>
@@ -6354,10 +7222,13 @@
         <v>482</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>382</v>
       </c>
@@ -6368,10 +7239,13 @@
         <v>482</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>383</v>
       </c>
@@ -6382,10 +7256,13 @@
         <v>482</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>385</v>
       </c>
@@ -6396,10 +7273,13 @@
         <v>482</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>386</v>
       </c>
@@ -6410,10 +7290,13 @@
         <v>482</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>387</v>
       </c>
@@ -6424,10 +7307,13 @@
         <v>388</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>389</v>
       </c>
@@ -6438,10 +7324,13 @@
         <v>482</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>390</v>
       </c>
@@ -6452,10 +7341,13 @@
         <v>482</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>391</v>
       </c>
@@ -6466,10 +7358,13 @@
         <v>482</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>392</v>
       </c>
@@ -6480,10 +7375,13 @@
         <v>482</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>393</v>
       </c>
@@ -6494,10 +7392,13 @@
         <v>482</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>394</v>
       </c>
@@ -6508,10 +7409,13 @@
         <v>482</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>395</v>
       </c>
@@ -6522,10 +7426,13 @@
         <v>482</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>396</v>
       </c>
@@ -6536,10 +7443,13 @@
         <v>482</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>397</v>
       </c>
@@ -6550,10 +7460,13 @@
         <v>482</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>398</v>
       </c>
@@ -6564,10 +7477,13 @@
         <v>482</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>399</v>
       </c>
@@ -6578,10 +7494,13 @@
         <v>482</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>401</v>
       </c>
@@ -6592,10 +7511,13 @@
         <v>402</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>403</v>
       </c>
@@ -6603,13 +7525,16 @@
         <v>404</v>
       </c>
       <c r="C305" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>405</v>
       </c>
@@ -6620,10 +7545,13 @@
         <v>482</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>406</v>
       </c>
@@ -6634,10 +7562,13 @@
         <v>482</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>407</v>
       </c>
@@ -6648,10 +7579,13 @@
         <v>482</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>408</v>
       </c>
@@ -6662,10 +7596,13 @@
         <v>482</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>409</v>
       </c>
@@ -6676,10 +7613,13 @@
         <v>482</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>410</v>
       </c>
@@ -6690,10 +7630,13 @@
         <v>482</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>411</v>
       </c>
@@ -6704,10 +7647,13 @@
         <v>482</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>412</v>
       </c>
@@ -6718,10 +7664,13 @@
         <v>482</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>413</v>
       </c>
@@ -6732,10 +7681,13 @@
         <v>482</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>414</v>
       </c>
@@ -6746,10 +7698,13 @@
         <v>482</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>415</v>
       </c>
@@ -6760,10 +7715,13 @@
         <v>482</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>416</v>
       </c>
@@ -6774,10 +7732,13 @@
         <v>482</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>417</v>
       </c>
@@ -6788,10 +7749,13 @@
         <v>482</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>418</v>
       </c>
@@ -6802,10 +7766,13 @@
         <v>482</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>420</v>
       </c>
@@ -6816,10 +7783,13 @@
         <v>482</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>421</v>
       </c>
@@ -6830,10 +7800,13 @@
         <v>482</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>422</v>
       </c>
@@ -6844,10 +7817,13 @@
         <v>482</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>424</v>
       </c>
@@ -6858,10 +7834,13 @@
         <v>482</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>425</v>
       </c>
@@ -6872,10 +7851,13 @@
         <v>482</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>426</v>
       </c>
@@ -6883,13 +7865,16 @@
         <v>427</v>
       </c>
       <c r="C325" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>428</v>
       </c>
@@ -6900,10 +7885,13 @@
         <v>482</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>430</v>
       </c>
@@ -6914,10 +7902,13 @@
         <v>482</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>431</v>
       </c>
@@ -6928,10 +7919,13 @@
         <v>482</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>432</v>
       </c>
@@ -6942,10 +7936,13 @@
         <v>482</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>433</v>
       </c>
@@ -6956,10 +7953,13 @@
         <v>482</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>434</v>
       </c>
@@ -6970,10 +7970,13 @@
         <v>482</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>435</v>
       </c>
@@ -6984,10 +7987,13 @@
         <v>482</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>437</v>
       </c>
@@ -6998,10 +8004,13 @@
         <v>482</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>439</v>
       </c>
@@ -7012,10 +8021,13 @@
         <v>482</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>440</v>
       </c>
@@ -7026,10 +8038,13 @@
         <v>482</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>441</v>
       </c>
@@ -7037,13 +8052,16 @@
         <v>442</v>
       </c>
       <c r="C336" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>443</v>
       </c>
@@ -7054,10 +8072,13 @@
         <v>482</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>444</v>
       </c>
@@ -7068,10 +8089,13 @@
         <v>482</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>445</v>
       </c>
@@ -7082,10 +8106,13 @@
         <v>482</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>447</v>
       </c>
@@ -7096,10 +8123,13 @@
         <v>482</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>448</v>
       </c>
@@ -7110,10 +8140,13 @@
         <v>482</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>449</v>
       </c>
@@ -7124,10 +8157,13 @@
         <v>482</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>450</v>
       </c>
@@ -7138,10 +8174,13 @@
         <v>482</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>451</v>
       </c>
@@ -7149,13 +8188,16 @@
         <v>452</v>
       </c>
       <c r="C344" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>453</v>
       </c>
@@ -7166,10 +8208,13 @@
         <v>482</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>454</v>
       </c>
@@ -7180,10 +8225,13 @@
         <v>482</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>455</v>
       </c>
@@ -7194,10 +8242,13 @@
         <v>482</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>456</v>
       </c>
@@ -7208,10 +8259,13 @@
         <v>482</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>457</v>
       </c>
@@ -7222,10 +8276,13 @@
         <v>482</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>458</v>
       </c>
@@ -7236,10 +8293,13 @@
         <v>482</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>459</v>
       </c>
@@ -7250,10 +8310,13 @@
         <v>482</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>460</v>
       </c>
@@ -7264,10 +8327,13 @@
         <v>482</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>461</v>
       </c>
@@ -7278,10 +8344,13 @@
         <v>482</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>462</v>
       </c>
@@ -7292,10 +8361,13 @@
         <v>482</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>463</v>
       </c>
@@ -7303,13 +8375,16 @@
         <v>464</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>465</v>
       </c>
@@ -7317,13 +8392,16 @@
         <v>466</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>467</v>
       </c>
@@ -7334,10 +8412,13 @@
         <v>482</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>468</v>
       </c>
@@ -7348,10 +8429,13 @@
         <v>482</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>469</v>
       </c>
@@ -7362,10 +8446,13 @@
         <v>482</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>470</v>
       </c>
@@ -7376,10 +8463,13 @@
         <v>482</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>471</v>
       </c>
@@ -7390,10 +8480,13 @@
         <v>482</v>
       </c>
       <c r="D361" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>472</v>
       </c>
@@ -7404,10 +8497,13 @@
         <v>482</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="285" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>474</v>
       </c>
@@ -7415,13 +8511,16 @@
         <v>475</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>476</v>
       </c>
@@ -7429,13 +8528,16 @@
         <v>477</v>
       </c>
       <c r="C364" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D364" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D364" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E364" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>478</v>
       </c>
@@ -7443,13 +8545,16 @@
         <v>479</v>
       </c>
       <c r="C365" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D365" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D365" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E365" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>480</v>
       </c>
@@ -7460,10 +8565,13 @@
         <v>482</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>481</v>
       </c>
@@ -7474,7 +8582,10 @@
         <v>482</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
